--- a/data/WingDeformation.xlsx
+++ b/data/WingDeformation.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Kryuchkov" sheetId="1" r:id="rId1"/>
-    <sheet name="Rear Lounge" sheetId="2" r:id="rId2"/>
-    <sheet name="Front Lounge" sheetId="3" r:id="rId3"/>
+    <sheet name="Rotating" sheetId="4" r:id="rId2"/>
+    <sheet name="Rear Lounge" sheetId="2" r:id="rId3"/>
+    <sheet name="Front Lounge" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="WingDeformationFront" localSheetId="2">'Front Lounge'!$A$1:$C$437</definedName>
-    <definedName name="WingDeformationRear" localSheetId="1">'Rear Lounge'!$A$1:$B$433</definedName>
+    <definedName name="WingDeformationFront" localSheetId="3">'Front Lounge'!$A$1:$C$437</definedName>
+    <definedName name="WingDeformationRear" localSheetId="2">'Rear Lounge'!$A$1:$B$433</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>bottom</t>
   </si>
@@ -106,6 +107,9 @@
   </si>
   <si>
     <t>-Y Location-</t>
+  </si>
+  <si>
+    <t>delta(x) = (-9.31939+9.56525)*1e-006*x**5 + (0.000389254-0.00040337)*x**4 + (-0.00568668+0.00602961)*x**3 + (0.0581283-0.0620603)*x**2 + (-0.0799436+0.0968412)*x + (0.000112752-0.034874)</t>
   </si>
 </sst>
 </file>
@@ -441,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="H21" sqref="H21:I32"/>
     </sheetView>
   </sheetViews>
@@ -1075,10 +1079,3484 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E432"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2.6499000000000001</v>
+      </c>
+      <c r="B1">
+        <v>0.114776</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2.6499000000000001</v>
+      </c>
+      <c r="B2">
+        <v>0.114846</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.6501000000000001</v>
+      </c>
+      <c r="B3">
+        <v>0.114798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.6501000000000001</v>
+      </c>
+      <c r="B4">
+        <v>0.11497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.7936999999999999</v>
+      </c>
+      <c r="B5">
+        <v>0.13650699999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2.7936999999999999</v>
+      </c>
+      <c r="B6">
+        <v>0.13650200000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2.7938999999999998</v>
+      </c>
+      <c r="B7">
+        <v>0.136547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2.7938999999999998</v>
+      </c>
+      <c r="B8">
+        <v>0.13653799999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2.9375</v>
+      </c>
+      <c r="B9">
+        <v>0.15925900000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2.9376000000000002</v>
+      </c>
+      <c r="B10">
+        <v>0.15922900000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2.9377</v>
+      </c>
+      <c r="B11">
+        <v>0.159251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2.9377</v>
+      </c>
+      <c r="B12">
+        <v>0.15928500000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3.0813999999999999</v>
+      </c>
+      <c r="B13">
+        <v>0.18287700000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3.0813999999999999</v>
+      </c>
+      <c r="B14">
+        <v>0.18290100000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3.0815000000000001</v>
+      </c>
+      <c r="B15">
+        <v>0.182888</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3.0815000000000001</v>
+      </c>
+      <c r="B16">
+        <v>0.18290699999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3.2252000000000001</v>
+      </c>
+      <c r="B17">
+        <v>0.207319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3.2252000000000001</v>
+      </c>
+      <c r="B18">
+        <v>0.20732900000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3.2254</v>
+      </c>
+      <c r="B19">
+        <v>0.20735300000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3.2254</v>
+      </c>
+      <c r="B20">
+        <v>0.20736199999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3.3690000000000002</v>
+      </c>
+      <c r="B21">
+        <v>0.23252100000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3.3690000000000002</v>
+      </c>
+      <c r="B22">
+        <v>0.23252300000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3.3692000000000002</v>
+      </c>
+      <c r="B23">
+        <v>0.23256199999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3.3692000000000002</v>
+      </c>
+      <c r="B24">
+        <v>0.23256299999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3.5127999999999999</v>
+      </c>
+      <c r="B25">
+        <v>0.25845800000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3.5127999999999999</v>
+      </c>
+      <c r="B26">
+        <v>0.25845899999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3.5129999999999999</v>
+      </c>
+      <c r="B27">
+        <v>0.25849499999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3.5129999999999999</v>
+      </c>
+      <c r="B28">
+        <v>0.258496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3.6566000000000001</v>
+      </c>
+      <c r="B29">
+        <v>0.28509600000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3.6566000000000001</v>
+      </c>
+      <c r="B30">
+        <v>0.28509800000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3.6568000000000001</v>
+      </c>
+      <c r="B31">
+        <v>0.28513300000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3.6568000000000001</v>
+      </c>
+      <c r="B32">
+        <v>0.28513699999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3.8005</v>
+      </c>
+      <c r="B33">
+        <v>0.31246800000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3.8005</v>
+      </c>
+      <c r="B34">
+        <v>0.31245600000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3.8006000000000002</v>
+      </c>
+      <c r="B35">
+        <v>0.31247200000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3.8006000000000002</v>
+      </c>
+      <c r="B36">
+        <v>0.312469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3.9304000000000001</v>
+      </c>
+      <c r="B37">
+        <v>0.33766299999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3.9304000000000001</v>
+      </c>
+      <c r="B38">
+        <v>0.33767000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3.9306000000000001</v>
+      </c>
+      <c r="B39">
+        <v>0.33769399999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3.9306000000000001</v>
+      </c>
+      <c r="B40">
+        <v>0.337696</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4.0602999999999998</v>
+      </c>
+      <c r="B41">
+        <v>0.36350399999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4.0602999999999998</v>
+      </c>
+      <c r="B42">
+        <v>0.363483</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4.0605000000000002</v>
+      </c>
+      <c r="B43">
+        <v>0.36353799999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4.0605000000000002</v>
+      </c>
+      <c r="B44">
+        <v>0.36352299999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4.1902999999999997</v>
+      </c>
+      <c r="B45">
+        <v>0.38997799999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4.1902999999999997</v>
+      </c>
+      <c r="B46">
+        <v>0.38996399999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4.1905000000000001</v>
+      </c>
+      <c r="B47">
+        <v>0.39002300000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4.1905000000000001</v>
+      </c>
+      <c r="B48">
+        <v>0.39000699999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4.3202999999999996</v>
+      </c>
+      <c r="B49">
+        <v>0.41709000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4.3202999999999996</v>
+      </c>
+      <c r="B50">
+        <v>0.41707899999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>4.3205</v>
+      </c>
+      <c r="B51">
+        <v>0.417134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>4.3205</v>
+      </c>
+      <c r="B52">
+        <v>0.41711999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>4.4501999999999997</v>
+      </c>
+      <c r="B53">
+        <v>0.44481999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>4.4501999999999997</v>
+      </c>
+      <c r="B54">
+        <v>0.44480900000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>4.4504000000000001</v>
+      </c>
+      <c r="B55">
+        <v>0.44486599999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>4.4504000000000001</v>
+      </c>
+      <c r="B56">
+        <v>0.444851</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>4.5801999999999996</v>
+      </c>
+      <c r="B57">
+        <v>0.47322900000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>4.5801999999999996</v>
+      </c>
+      <c r="B58">
+        <v>0.473215</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>4.5804</v>
+      </c>
+      <c r="B59">
+        <v>0.47327399999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>4.5804</v>
+      </c>
+      <c r="B60">
+        <v>0.47326000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>4.7102000000000004</v>
+      </c>
+      <c r="B61">
+        <v>0.50230399999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>4.7102000000000004</v>
+      </c>
+      <c r="B62">
+        <v>0.50229599999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>4.7103000000000002</v>
+      </c>
+      <c r="B63">
+        <v>0.50232600000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>4.7103000000000002</v>
+      </c>
+      <c r="B64">
+        <v>0.50231899999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>4.8400999999999996</v>
+      </c>
+      <c r="B65">
+        <v>0.53204099999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>4.8400999999999996</v>
+      </c>
+      <c r="B66">
+        <v>0.53202899999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>4.8403</v>
+      </c>
+      <c r="B67">
+        <v>0.532084</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>4.8403</v>
+      </c>
+      <c r="B68">
+        <v>0.53207300000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>4.9701000000000004</v>
+      </c>
+      <c r="B69">
+        <v>0.56247000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>4.9701000000000004</v>
+      </c>
+      <c r="B70">
+        <v>0.56248799999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>4.9702000000000002</v>
+      </c>
+      <c r="B71">
+        <v>0.56250100000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>4.9702000000000002</v>
+      </c>
+      <c r="B72">
+        <v>0.56251200000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>5.1001000000000003</v>
+      </c>
+      <c r="B73">
+        <v>0.59366399999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>5.1002000000000001</v>
+      </c>
+      <c r="B74">
+        <v>0.59368799999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>5.1002000000000001</v>
+      </c>
+      <c r="B75">
+        <v>0.59366399999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>5.1002999999999998</v>
+      </c>
+      <c r="B76">
+        <v>0.593696</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>5.2499000000000002</v>
+      </c>
+      <c r="B77">
+        <v>0.63088999999999995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>5.25</v>
+      </c>
+      <c r="B78">
+        <v>0.63091799999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>5.25</v>
+      </c>
+      <c r="B79">
+        <v>0.63092999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>5.2503000000000002</v>
+      </c>
+      <c r="B80">
+        <v>0.63103600000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>5.3997000000000002</v>
+      </c>
+      <c r="B81">
+        <v>0.66913599999999995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>5.3997999999999999</v>
+      </c>
+      <c r="B82">
+        <v>0.66915999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>5.3997999999999999</v>
+      </c>
+      <c r="B83">
+        <v>0.66915100000000005</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>5.4001000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.66924899999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>5.5495000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.70832200000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>5.5495999999999999</v>
+      </c>
+      <c r="B86">
+        <v>0.70835199999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>5.5495999999999999</v>
+      </c>
+      <c r="B87">
+        <v>0.70835199999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>5.5499000000000001</v>
+      </c>
+      <c r="B88">
+        <v>0.70844399999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>5.6993</v>
+      </c>
+      <c r="B89">
+        <v>0.74846900000000005</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>5.6993999999999998</v>
+      </c>
+      <c r="B90">
+        <v>0.74849100000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>5.6993999999999998</v>
+      </c>
+      <c r="B91">
+        <v>0.74848700000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>5.6997</v>
+      </c>
+      <c r="B92">
+        <v>0.74856999999999996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>5.8327999999999998</v>
+      </c>
+      <c r="B93">
+        <v>0.78492099999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>5.8329000000000004</v>
+      </c>
+      <c r="B94">
+        <v>0.78495400000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>5.8329000000000004</v>
+      </c>
+      <c r="B95">
+        <v>0.78495099999999995</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>5.8331999999999997</v>
+      </c>
+      <c r="B96">
+        <v>0.78503000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>5.9663000000000004</v>
+      </c>
+      <c r="B97">
+        <v>0.82215300000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>5.9664000000000001</v>
+      </c>
+      <c r="B98">
+        <v>0.82217899999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>5.9664000000000001</v>
+      </c>
+      <c r="B99">
+        <v>0.82216800000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>5.9668000000000001</v>
+      </c>
+      <c r="B100">
+        <v>0.822272</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>6.0998000000000001</v>
+      </c>
+      <c r="B101">
+        <v>0.86012900000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>6.0998999999999999</v>
+      </c>
+      <c r="B102">
+        <v>0.86015900000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>6.0998999999999999</v>
+      </c>
+      <c r="B103">
+        <v>0.86014999999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>6.1002999999999998</v>
+      </c>
+      <c r="B104">
+        <v>0.86024500000000004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>6.2332999999999998</v>
+      </c>
+      <c r="B105">
+        <v>0.89886100000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>6.2335000000000003</v>
+      </c>
+      <c r="B106">
+        <v>0.89892099999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>6.2335000000000003</v>
+      </c>
+      <c r="B107">
+        <v>0.89890899999999996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>6.2337999999999996</v>
+      </c>
+      <c r="B108">
+        <v>0.89897199999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>6.3669000000000002</v>
+      </c>
+      <c r="B109">
+        <v>0.93837400000000004</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>6.367</v>
+      </c>
+      <c r="B110">
+        <v>0.93840699999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>6.367</v>
+      </c>
+      <c r="B111">
+        <v>0.93839300000000003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>6.3673000000000002</v>
+      </c>
+      <c r="B112">
+        <v>0.93845400000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>6.5004</v>
+      </c>
+      <c r="B113">
+        <v>0.978603</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>6.5004999999999997</v>
+      </c>
+      <c r="B114">
+        <v>0.97863599999999995</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>6.5004999999999997</v>
+      </c>
+      <c r="B115">
+        <v>0.97862700000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>6.5007999999999999</v>
+      </c>
+      <c r="B116">
+        <v>0.97868100000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>6.6338999999999997</v>
+      </c>
+      <c r="B117">
+        <v>1.0195700000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>6.6340000000000003</v>
+      </c>
+      <c r="B118">
+        <v>1.019603</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>6.6340000000000003</v>
+      </c>
+      <c r="B119">
+        <v>1.0195909999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>6.6342999999999996</v>
+      </c>
+      <c r="B120">
+        <v>1.0196419999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>6.7674000000000003</v>
+      </c>
+      <c r="B121">
+        <v>1.0612490000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>6.7675000000000001</v>
+      </c>
+      <c r="B122">
+        <v>1.0612889999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>6.7675000000000001</v>
+      </c>
+      <c r="B123">
+        <v>1.061288</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>6.7678000000000003</v>
+      </c>
+      <c r="B124">
+        <v>1.061342</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>6.9009</v>
+      </c>
+      <c r="B125">
+        <v>1.10365</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>6.9009999999999998</v>
+      </c>
+      <c r="B126">
+        <v>1.1036840000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>6.9009999999999998</v>
+      </c>
+      <c r="B127">
+        <v>1.10368</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>6.9013</v>
+      </c>
+      <c r="B128">
+        <v>1.1037429999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>7.0342000000000002</v>
+      </c>
+      <c r="B129">
+        <v>1.1468419999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>7.0343</v>
+      </c>
+      <c r="B130">
+        <v>1.146882</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>7.0343</v>
+      </c>
+      <c r="B131">
+        <v>1.1468719999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>7.0346000000000002</v>
+      </c>
+      <c r="B132">
+        <v>1.1469240000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>7.1673999999999998</v>
+      </c>
+      <c r="B133">
+        <v>1.1908449999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>7.1676000000000002</v>
+      </c>
+      <c r="B134">
+        <v>1.190912</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>7.1676000000000002</v>
+      </c>
+      <c r="B135">
+        <v>1.190903</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>7.1679000000000004</v>
+      </c>
+      <c r="B136">
+        <v>1.19096</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>7.3007</v>
+      </c>
+      <c r="B137">
+        <v>1.2357</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>7.3007999999999997</v>
+      </c>
+      <c r="B138">
+        <v>1.2357359999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>7.3007999999999997</v>
+      </c>
+      <c r="B139">
+        <v>1.2357229999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>7.3010999999999999</v>
+      </c>
+      <c r="B140">
+        <v>1.235784</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>7.4340000000000002</v>
+      </c>
+      <c r="B141">
+        <v>1.2813859999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>7.4340999999999999</v>
+      </c>
+      <c r="B142">
+        <v>1.281423</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>7.4340999999999999</v>
+      </c>
+      <c r="B143">
+        <v>1.2814080000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>7.4344000000000001</v>
+      </c>
+      <c r="B144">
+        <v>1.2814700000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>7.5673000000000004</v>
+      </c>
+      <c r="B145">
+        <v>1.3278920000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>7.5674000000000001</v>
+      </c>
+      <c r="B146">
+        <v>1.3279289999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>7.5674000000000001</v>
+      </c>
+      <c r="B147">
+        <v>1.3279190000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>7.5677000000000003</v>
+      </c>
+      <c r="B148">
+        <v>1.3279829999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>7.7004999999999999</v>
+      </c>
+      <c r="B149">
+        <v>1.3751720000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>7.7005999999999997</v>
+      </c>
+      <c r="B150">
+        <v>1.37521</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>7.7005999999999997</v>
+      </c>
+      <c r="B151">
+        <v>1.3751979999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>7.7008999999999999</v>
+      </c>
+      <c r="B152">
+        <v>1.375264</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>7.8338000000000001</v>
+      </c>
+      <c r="B153">
+        <v>1.4232910000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>7.8338999999999999</v>
+      </c>
+      <c r="B154">
+        <v>1.4233290000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>7.8338999999999999</v>
+      </c>
+      <c r="B155">
+        <v>1.4233169999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>7.8342000000000001</v>
+      </c>
+      <c r="B156">
+        <v>1.4233830000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>7.9671000000000003</v>
+      </c>
+      <c r="B157">
+        <v>1.472189</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>7.9672000000000001</v>
+      </c>
+      <c r="B158">
+        <v>1.472229</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>7.9672000000000001</v>
+      </c>
+      <c r="B159">
+        <v>1.4722280000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>7.9675000000000002</v>
+      </c>
+      <c r="B160">
+        <v>1.472299</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>8.1004000000000005</v>
+      </c>
+      <c r="B161">
+        <v>1.5218469999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>8.1005000000000003</v>
+      </c>
+      <c r="B162">
+        <v>1.521887</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>8.1005000000000003</v>
+      </c>
+      <c r="B163">
+        <v>1.5218860000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>8.1007999999999996</v>
+      </c>
+      <c r="B164">
+        <v>1.521962</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>8.2303999999999995</v>
+      </c>
+      <c r="B165">
+        <v>1.570991</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>8.2304999999999993</v>
+      </c>
+      <c r="B166">
+        <v>1.5710329999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>8.2304999999999993</v>
+      </c>
+      <c r="B167">
+        <v>1.5710249999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>8.2308000000000003</v>
+      </c>
+      <c r="B168">
+        <v>1.571097</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>8.3605</v>
+      </c>
+      <c r="B169">
+        <v>1.620994</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>8.3605999999999998</v>
+      </c>
+      <c r="B170">
+        <v>1.6210329999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>8.3605999999999998</v>
+      </c>
+      <c r="B171">
+        <v>1.6210290000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>8.3609000000000009</v>
+      </c>
+      <c r="B172">
+        <v>1.621103</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>8.4905000000000008</v>
+      </c>
+      <c r="B173">
+        <v>1.67178</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>8.4906000000000006</v>
+      </c>
+      <c r="B174">
+        <v>1.6718219999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>8.4906000000000006</v>
+      </c>
+      <c r="B175">
+        <v>1.671807</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>8.4908999999999999</v>
+      </c>
+      <c r="B176">
+        <v>1.67188</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>8.6205999999999996</v>
+      </c>
+      <c r="B177">
+        <v>1.723414</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>8.6206999999999994</v>
+      </c>
+      <c r="B178">
+        <v>1.7234560000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>8.6206999999999994</v>
+      </c>
+      <c r="B179">
+        <v>1.7234499999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>8.6210000000000004</v>
+      </c>
+      <c r="B180">
+        <v>1.7235180000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>8.7506000000000004</v>
+      </c>
+      <c r="B181">
+        <v>1.775822</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>8.7507999999999999</v>
+      </c>
+      <c r="B182">
+        <v>1.7759039999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>8.7507999999999999</v>
+      </c>
+      <c r="B183">
+        <v>1.7758929999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>8.7509999999999994</v>
+      </c>
+      <c r="B184">
+        <v>1.7759240000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>8.8806999999999992</v>
+      </c>
+      <c r="B185">
+        <v>1.829054</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>8.8808000000000007</v>
+      </c>
+      <c r="B186">
+        <v>1.8290999999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>8.8808000000000007</v>
+      </c>
+      <c r="B187">
+        <v>1.829097</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>8.8811</v>
+      </c>
+      <c r="B188">
+        <v>1.8291729999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>9.0107999999999997</v>
+      </c>
+      <c r="B189">
+        <v>1.8830960000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>9.0108999999999995</v>
+      </c>
+      <c r="B190">
+        <v>1.8831389999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>9.0108999999999995</v>
+      </c>
+      <c r="B191">
+        <v>1.883138</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>9.0112000000000005</v>
+      </c>
+      <c r="B192">
+        <v>1.8832059999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>9.1418999999999997</v>
+      </c>
+      <c r="B193">
+        <v>1.938358</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>9.1419999999999995</v>
+      </c>
+      <c r="B194">
+        <v>1.938409</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>9.1419999999999995</v>
+      </c>
+      <c r="B195">
+        <v>1.938399</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>9.1423000000000005</v>
+      </c>
+      <c r="B196">
+        <v>1.938472</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>9.2730999999999995</v>
+      </c>
+      <c r="B197">
+        <v>1.9945809999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>9.2731999999999992</v>
+      </c>
+      <c r="B198">
+        <v>1.994631</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>9.2731999999999992</v>
+      </c>
+      <c r="B199">
+        <v>1.9946250000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>9.2735000000000003</v>
+      </c>
+      <c r="B200">
+        <v>1.994694</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>9.4042999999999992</v>
+      </c>
+      <c r="B201">
+        <v>2.0517110000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>9.4044000000000008</v>
+      </c>
+      <c r="B202">
+        <v>2.0517620000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>9.4044000000000008</v>
+      </c>
+      <c r="B203">
+        <v>2.0517500000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>9.4047000000000001</v>
+      </c>
+      <c r="B204">
+        <v>2.0518200000000002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>9.5353999999999992</v>
+      </c>
+      <c r="B205">
+        <v>2.109699</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>9.5355000000000008</v>
+      </c>
+      <c r="B206">
+        <v>2.1097480000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>9.5355000000000008</v>
+      </c>
+      <c r="B207">
+        <v>2.1097380000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>9.5358000000000001</v>
+      </c>
+      <c r="B208">
+        <v>2.1097939999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>9.6666000000000007</v>
+      </c>
+      <c r="B209">
+        <v>2.1686169999999998</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>9.6667000000000005</v>
+      </c>
+      <c r="B210">
+        <v>2.1686679999999998</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>9.6667000000000005</v>
+      </c>
+      <c r="B211">
+        <v>2.1686589999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>9.6669999999999998</v>
+      </c>
+      <c r="B212">
+        <v>2.1687240000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>9.7978000000000005</v>
+      </c>
+      <c r="B213">
+        <v>2.228402</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>9.7979000000000003</v>
+      </c>
+      <c r="B214">
+        <v>2.2284540000000002</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>9.7979000000000003</v>
+      </c>
+      <c r="B215">
+        <v>2.2284459999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>9.7981999999999996</v>
+      </c>
+      <c r="B216">
+        <v>2.22851</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>9.9289000000000005</v>
+      </c>
+      <c r="B217">
+        <v>2.289005</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>9.9290000000000003</v>
+      </c>
+      <c r="B218">
+        <v>2.2890630000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>9.9290000000000003</v>
+      </c>
+      <c r="B219">
+        <v>2.2890609999999998</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>9.9292999999999996</v>
+      </c>
+      <c r="B220">
+        <v>2.289129</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>10.0601</v>
+      </c>
+      <c r="B221">
+        <v>2.3505129999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>10.0602</v>
+      </c>
+      <c r="B222">
+        <v>2.3505669999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>10.0602</v>
+      </c>
+      <c r="B223">
+        <v>2.350565</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>10.060499999999999</v>
+      </c>
+      <c r="B224">
+        <v>2.3506279999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>10.190200000000001</v>
+      </c>
+      <c r="B225">
+        <v>2.4123190000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>10.190300000000001</v>
+      </c>
+      <c r="B226">
+        <v>2.4123760000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>10.190300000000001</v>
+      </c>
+      <c r="B227">
+        <v>2.412369</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>10.1905</v>
+      </c>
+      <c r="B228">
+        <v>2.4123920000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>10.3202</v>
+      </c>
+      <c r="B229">
+        <v>2.47505</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>10.3203</v>
+      </c>
+      <c r="B230">
+        <v>2.4751059999999998</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>10.3203</v>
+      </c>
+      <c r="B231">
+        <v>2.4750969999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>10.320600000000001</v>
+      </c>
+      <c r="B232">
+        <v>2.475158</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>10.4503</v>
+      </c>
+      <c r="B233">
+        <v>2.5387909999999998</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>10.4504</v>
+      </c>
+      <c r="B234">
+        <v>2.5388489999999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>10.4504</v>
+      </c>
+      <c r="B235">
+        <v>2.53884</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>10.4506</v>
+      </c>
+      <c r="B236">
+        <v>2.5388480000000002</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>10.580299999999999</v>
+      </c>
+      <c r="B237">
+        <v>2.6034359999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>10.580399999999999</v>
+      </c>
+      <c r="B238">
+        <v>2.6034950000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>10.580399999999999</v>
+      </c>
+      <c r="B239">
+        <v>2.603485</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>10.5807</v>
+      </c>
+      <c r="B240">
+        <v>2.6035370000000002</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>10.7104</v>
+      </c>
+      <c r="B241">
+        <v>2.6690770000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>10.7105</v>
+      </c>
+      <c r="B242">
+        <v>2.6691340000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>10.7105</v>
+      </c>
+      <c r="B243">
+        <v>2.6691240000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>10.710699999999999</v>
+      </c>
+      <c r="B244">
+        <v>2.6691220000000002</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>10.840400000000001</v>
+      </c>
+      <c r="B245">
+        <v>2.7356060000000002</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>10.8405</v>
+      </c>
+      <c r="B246">
+        <v>2.735662</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>10.8405</v>
+      </c>
+      <c r="B247">
+        <v>2.7356530000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>10.8408</v>
+      </c>
+      <c r="B248">
+        <v>2.735703</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>10.9704</v>
+      </c>
+      <c r="B249">
+        <v>2.8030599999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>10.970599999999999</v>
+      </c>
+      <c r="B250">
+        <v>2.8031769999999998</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>10.970599999999999</v>
+      </c>
+      <c r="B251">
+        <v>2.803175</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>10.970800000000001</v>
+      </c>
+      <c r="B252">
+        <v>2.8031670000000002</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>11.1005</v>
+      </c>
+      <c r="B253">
+        <v>2.871515</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>11.1006</v>
+      </c>
+      <c r="B254">
+        <v>2.871575</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>11.1006</v>
+      </c>
+      <c r="B255">
+        <v>2.871572</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>11.100899999999999</v>
+      </c>
+      <c r="B256">
+        <v>2.871623</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>11.2341</v>
+      </c>
+      <c r="B257">
+        <v>2.94265</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>11.2342</v>
+      </c>
+      <c r="B258">
+        <v>2.9427089999999998</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>11.2342</v>
+      </c>
+      <c r="B259">
+        <v>2.942701</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>11.234500000000001</v>
+      </c>
+      <c r="B260">
+        <v>2.942752</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>11.367699999999999</v>
+      </c>
+      <c r="B261">
+        <v>3.014926</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>11.367800000000001</v>
+      </c>
+      <c r="B262">
+        <v>3.0149840000000001</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>11.367800000000001</v>
+      </c>
+      <c r="B263">
+        <v>3.0149759999999999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>11.3681</v>
+      </c>
+      <c r="B264">
+        <v>3.0150269999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>11.501300000000001</v>
+      </c>
+      <c r="B265">
+        <v>3.0883430000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>11.5014</v>
+      </c>
+      <c r="B266">
+        <v>3.0884019999999999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>11.5014</v>
+      </c>
+      <c r="B267">
+        <v>3.0883940000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>11.5017</v>
+      </c>
+      <c r="B268">
+        <v>3.0884450000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>11.6349</v>
+      </c>
+      <c r="B269">
+        <v>3.1628850000000002</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>11.635</v>
+      </c>
+      <c r="B270">
+        <v>3.162944</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>11.635</v>
+      </c>
+      <c r="B271">
+        <v>3.1629360000000002</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>11.635300000000001</v>
+      </c>
+      <c r="B272">
+        <v>3.1629909999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>11.7685</v>
+      </c>
+      <c r="B273">
+        <v>3.2385290000000002</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>11.768599999999999</v>
+      </c>
+      <c r="B274">
+        <v>3.2385839999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>11.768599999999999</v>
+      </c>
+      <c r="B275">
+        <v>3.2385760000000001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>11.7689</v>
+      </c>
+      <c r="B276">
+        <v>3.238632</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>11.902100000000001</v>
+      </c>
+      <c r="B277">
+        <v>3.3152409999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>11.902200000000001</v>
+      </c>
+      <c r="B278">
+        <v>3.315296</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>11.902200000000001</v>
+      </c>
+      <c r="B279">
+        <v>3.3152889999999999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>11.9025</v>
+      </c>
+      <c r="B280">
+        <v>3.3153429999999999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>12.0357</v>
+      </c>
+      <c r="B281">
+        <v>3.392998</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>12.0358</v>
+      </c>
+      <c r="B282">
+        <v>3.3930600000000002</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>12.0358</v>
+      </c>
+      <c r="B283">
+        <v>3.393052</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>12.036099999999999</v>
+      </c>
+      <c r="B284">
+        <v>3.3930959999999999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>12.1693</v>
+      </c>
+      <c r="B285">
+        <v>3.4717720000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>12.1694</v>
+      </c>
+      <c r="B286">
+        <v>3.4718339999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>12.1694</v>
+      </c>
+      <c r="B287">
+        <v>3.4718239999999998</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>12.169700000000001</v>
+      </c>
+      <c r="B288">
+        <v>3.4718589999999998</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>12.302899999999999</v>
+      </c>
+      <c r="B289">
+        <v>3.5515370000000002</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>12.303000000000001</v>
+      </c>
+      <c r="B290">
+        <v>3.5516009999999998</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>12.303000000000001</v>
+      </c>
+      <c r="B291">
+        <v>3.5515910000000002</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>12.3033</v>
+      </c>
+      <c r="B292">
+        <v>3.5516299999999998</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>12.436500000000001</v>
+      </c>
+      <c r="B293">
+        <v>3.6322589999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>12.4366</v>
+      </c>
+      <c r="B294">
+        <v>3.6323340000000002</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>12.4366</v>
+      </c>
+      <c r="B295">
+        <v>3.6323279999999998</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>12.4369</v>
+      </c>
+      <c r="B296">
+        <v>3.6323699999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>12.5701</v>
+      </c>
+      <c r="B297">
+        <v>3.7139669999999998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>12.5702</v>
+      </c>
+      <c r="B298">
+        <v>3.7140230000000001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>12.5702</v>
+      </c>
+      <c r="B299">
+        <v>3.7140070000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>12.570499999999999</v>
+      </c>
+      <c r="B300">
+        <v>3.7140610000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>12.704700000000001</v>
+      </c>
+      <c r="B301">
+        <v>3.7972679999999999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>12.704800000000001</v>
+      </c>
+      <c r="B302">
+        <v>3.7973309999999998</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>12.704800000000001</v>
+      </c>
+      <c r="B303">
+        <v>3.7973129999999999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>12.7051</v>
+      </c>
+      <c r="B304">
+        <v>3.7973669999999999</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>12.8392</v>
+      </c>
+      <c r="B305">
+        <v>3.8816519999999999</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>12.839399999999999</v>
+      </c>
+      <c r="B306">
+        <v>3.8817819999999998</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>12.839399999999999</v>
+      </c>
+      <c r="B307">
+        <v>3.8817659999999998</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>12.839600000000001</v>
+      </c>
+      <c r="B308">
+        <v>3.8817539999999999</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>12.973800000000001</v>
+      </c>
+      <c r="B309">
+        <v>3.9672000000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>12.9739</v>
+      </c>
+      <c r="B310">
+        <v>3.9672619999999998</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>12.9739</v>
+      </c>
+      <c r="B311">
+        <v>3.967247</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>12.9742</v>
+      </c>
+      <c r="B312">
+        <v>3.9672969999999999</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>13.1083</v>
+      </c>
+      <c r="B313">
+        <v>4.0537330000000003</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>13.108499999999999</v>
+      </c>
+      <c r="B314">
+        <v>4.0538650000000001</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>13.108499999999999</v>
+      </c>
+      <c r="B315">
+        <v>4.0538540000000003</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>13.108700000000001</v>
+      </c>
+      <c r="B316">
+        <v>4.053839</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>13.242900000000001</v>
+      </c>
+      <c r="B317">
+        <v>4.141337</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>13.243</v>
+      </c>
+      <c r="B318">
+        <v>4.1414049999999998</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>13.243</v>
+      </c>
+      <c r="B319">
+        <v>4.1413929999999999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>13.2433</v>
+      </c>
+      <c r="B320">
+        <v>4.1414439999999999</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>13.3775</v>
+      </c>
+      <c r="B321">
+        <v>4.2299059999999997</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>13.377599999999999</v>
+      </c>
+      <c r="B322">
+        <v>4.2299689999999996</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>13.377599999999999</v>
+      </c>
+      <c r="B323">
+        <v>4.2299579999999999</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>13.377800000000001</v>
+      </c>
+      <c r="B324">
+        <v>4.2299509999999998</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>13.512</v>
+      </c>
+      <c r="B325">
+        <v>4.3193219999999997</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>13.5121</v>
+      </c>
+      <c r="B326">
+        <v>4.3193910000000004</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>13.5121</v>
+      </c>
+      <c r="B327">
+        <v>4.3193809999999999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>13.5124</v>
+      </c>
+      <c r="B328">
+        <v>4.3194309999999998</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>13.646599999999999</v>
+      </c>
+      <c r="B329">
+        <v>4.4096719999999996</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>13.646699999999999</v>
+      </c>
+      <c r="B330">
+        <v>4.4097359999999997</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>13.646699999999999</v>
+      </c>
+      <c r="B331">
+        <v>4.409726</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>13.6469</v>
+      </c>
+      <c r="B332">
+        <v>4.4097169999999997</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>13.7811</v>
+      </c>
+      <c r="B333">
+        <v>4.5007700000000002</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>13.7812</v>
+      </c>
+      <c r="B334">
+        <v>4.5008340000000002</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>13.7812</v>
+      </c>
+      <c r="B335">
+        <v>4.5008220000000003</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>13.781499999999999</v>
+      </c>
+      <c r="B336">
+        <v>4.5008800000000004</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>13.915699999999999</v>
+      </c>
+      <c r="B337">
+        <v>4.5927069999999999</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>13.915800000000001</v>
+      </c>
+      <c r="B338">
+        <v>4.5927759999999997</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>13.915800000000001</v>
+      </c>
+      <c r="B339">
+        <v>4.5927660000000001</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>13.916</v>
+      </c>
+      <c r="B340">
+        <v>4.5927579999999999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>14.0502</v>
+      </c>
+      <c r="B341">
+        <v>4.6852819999999999</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>14.0504</v>
+      </c>
+      <c r="B342">
+        <v>4.6854069999999997</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>14.0504</v>
+      </c>
+      <c r="B343">
+        <v>4.6853980000000002</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>14.050599999999999</v>
+      </c>
+      <c r="B344">
+        <v>4.6853920000000002</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>14.184799999999999</v>
+      </c>
+      <c r="B345">
+        <v>4.7785219999999997</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>14.184900000000001</v>
+      </c>
+      <c r="B346">
+        <v>4.7785900000000003</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>14.184900000000001</v>
+      </c>
+      <c r="B347">
+        <v>4.7785799999999998</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>14.1852</v>
+      </c>
+      <c r="B348">
+        <v>4.7786359999999997</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>14.3193</v>
+      </c>
+      <c r="B349">
+        <v>4.8723169999999998</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>14.3195</v>
+      </c>
+      <c r="B350">
+        <v>4.8724610000000004</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>14.3195</v>
+      </c>
+      <c r="B351">
+        <v>4.8724530000000001</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>14.319699999999999</v>
+      </c>
+      <c r="B352">
+        <v>4.8724309999999997</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>14.453900000000001</v>
+      </c>
+      <c r="B353">
+        <v>4.9667729999999999</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>14.454000000000001</v>
+      </c>
+      <c r="B354">
+        <v>4.9668390000000002</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>14.454000000000001</v>
+      </c>
+      <c r="B355">
+        <v>4.9668330000000003</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>14.4543</v>
+      </c>
+      <c r="B356">
+        <v>4.9668890000000001</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>14.5885</v>
+      </c>
+      <c r="B357">
+        <v>5.061769</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>14.5886</v>
+      </c>
+      <c r="B358">
+        <v>5.0618359999999996</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>14.5886</v>
+      </c>
+      <c r="B359">
+        <v>5.0618309999999997</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>14.588800000000001</v>
+      </c>
+      <c r="B360">
+        <v>5.0618189999999998</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>14.723000000000001</v>
+      </c>
+      <c r="B361">
+        <v>5.1571850000000001</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>14.723100000000001</v>
+      </c>
+      <c r="B362">
+        <v>5.1572500000000003</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>14.723100000000001</v>
+      </c>
+      <c r="B363">
+        <v>5.1572459999999998</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>14.7234</v>
+      </c>
+      <c r="B364">
+        <v>5.1573039999999999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>14.8576</v>
+      </c>
+      <c r="B365">
+        <v>5.2531189999999999</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>14.857699999999999</v>
+      </c>
+      <c r="B366">
+        <v>5.2531999999999996</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>14.857699999999999</v>
+      </c>
+      <c r="B367">
+        <v>5.2531970000000001</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>14.857900000000001</v>
+      </c>
+      <c r="B368">
+        <v>5.2531759999999998</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>14.9922</v>
+      </c>
+      <c r="B369">
+        <v>5.3494830000000002</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>14.9922</v>
+      </c>
+      <c r="B370">
+        <v>5.3494799999999998</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>14.9922</v>
+      </c>
+      <c r="B371">
+        <v>5.3494650000000004</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>14.9925</v>
+      </c>
+      <c r="B372">
+        <v>5.3495299999999997</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>15.1267</v>
+      </c>
+      <c r="B373">
+        <v>5.446123</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>15.126799999999999</v>
+      </c>
+      <c r="B374">
+        <v>5.4462140000000003</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>15.126799999999999</v>
+      </c>
+      <c r="B375">
+        <v>5.4462099999999998</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>15.1271</v>
+      </c>
+      <c r="B376">
+        <v>5.44625</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>15.2613</v>
+      </c>
+      <c r="B377">
+        <v>5.5431790000000003</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>15.2614</v>
+      </c>
+      <c r="B378">
+        <v>5.5432709999999998</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>15.2614</v>
+      </c>
+      <c r="B379">
+        <v>5.5432670000000002</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>15.2616</v>
+      </c>
+      <c r="B380">
+        <v>5.5432350000000001</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>15.395899999999999</v>
+      </c>
+      <c r="B381">
+        <v>5.6405310000000002</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>15.395899999999999</v>
+      </c>
+      <c r="B382">
+        <v>5.6405279999999998</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>15.395899999999999</v>
+      </c>
+      <c r="B383">
+        <v>5.6405149999999997</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>15.3962</v>
+      </c>
+      <c r="B384">
+        <v>5.6405760000000003</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>15.5303</v>
+      </c>
+      <c r="B385">
+        <v>5.7379730000000002</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>15.5305</v>
+      </c>
+      <c r="B386">
+        <v>5.7380959999999996</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>15.5305</v>
+      </c>
+      <c r="B387">
+        <v>5.7380930000000001</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>15.5307</v>
+      </c>
+      <c r="B388">
+        <v>5.7380959999999996</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>15.6639</v>
+      </c>
+      <c r="B389">
+        <v>5.8349450000000003</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>15.664099999999999</v>
+      </c>
+      <c r="B390">
+        <v>5.8350949999999999</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>15.664099999999999</v>
+      </c>
+      <c r="B391">
+        <v>5.8350910000000002</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>15.664300000000001</v>
+      </c>
+      <c r="B392">
+        <v>5.8350749999999998</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>15.797599999999999</v>
+      </c>
+      <c r="B393">
+        <v>5.9321830000000002</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>15.797700000000001</v>
+      </c>
+      <c r="B394">
+        <v>5.9322689999999998</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>15.797700000000001</v>
+      </c>
+      <c r="B395">
+        <v>5.9322670000000004</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>15.7979</v>
+      </c>
+      <c r="B396">
+        <v>5.9322520000000001</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>15.9312</v>
+      </c>
+      <c r="B397">
+        <v>6.0295199999999998</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>15.9313</v>
+      </c>
+      <c r="B398">
+        <v>6.0295959999999997</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>15.9313</v>
+      </c>
+      <c r="B399">
+        <v>6.0295940000000003</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>15.9315</v>
+      </c>
+      <c r="B400">
+        <v>6.0295810000000003</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>16.064699000000001</v>
+      </c>
+      <c r="B401">
+        <v>6.1269070000000001</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>16.064800000000002</v>
+      </c>
+      <c r="B402">
+        <v>6.1269830000000001</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>16.064800000000002</v>
+      </c>
+      <c r="B403">
+        <v>6.1269819999999999</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>16.065100000000001</v>
+      </c>
+      <c r="B404">
+        <v>6.1270410000000002</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>16.198298999999999</v>
+      </c>
+      <c r="B405">
+        <v>6.2244739999999998</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>16.198399999999999</v>
+      </c>
+      <c r="B406">
+        <v>6.2245499999999998</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>16.198399999999999</v>
+      </c>
+      <c r="B407">
+        <v>6.2245499999999998</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>16.198699999999999</v>
+      </c>
+      <c r="B408">
+        <v>6.2246090000000001</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>16.331900000000001</v>
+      </c>
+      <c r="B409">
+        <v>6.3221270000000001</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>16.332001000000002</v>
+      </c>
+      <c r="B410">
+        <v>6.322203</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>16.332001000000002</v>
+      </c>
+      <c r="B411">
+        <v>6.322203</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>16.3323</v>
+      </c>
+      <c r="B412">
+        <v>6.3222630000000004</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>16.465499999999999</v>
+      </c>
+      <c r="B413">
+        <v>6.419848</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>16.465599000000001</v>
+      </c>
+      <c r="B414">
+        <v>6.4199320000000002</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>16.465599000000001</v>
+      </c>
+      <c r="B415">
+        <v>6.4199320000000002</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>16.465900000000001</v>
+      </c>
+      <c r="B416">
+        <v>6.4199919999999997</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>16.5991</v>
+      </c>
+      <c r="B417">
+        <v>6.5176150000000002</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>16.599198999999999</v>
+      </c>
+      <c r="B418">
+        <v>6.5177009999999997</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>16.599198999999999</v>
+      </c>
+      <c r="B419">
+        <v>6.5177009999999997</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>16.599501</v>
+      </c>
+      <c r="B420">
+        <v>6.5177610000000001</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>16.732700000000001</v>
+      </c>
+      <c r="B421">
+        <v>6.6154270000000004</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>16.732800000000001</v>
+      </c>
+      <c r="B422">
+        <v>6.6155039999999996</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>16.732800000000001</v>
+      </c>
+      <c r="B423">
+        <v>6.6155039999999996</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>16.733101000000001</v>
+      </c>
+      <c r="B424">
+        <v>6.615564</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>16.866399999999999</v>
+      </c>
+      <c r="B425">
+        <v>6.7133310000000002</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>16.866399999999999</v>
+      </c>
+      <c r="B426">
+        <v>6.7133310000000002</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>16.866399999999999</v>
+      </c>
+      <c r="B427">
+        <v>6.7133149999999997</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>16.866699000000001</v>
+      </c>
+      <c r="B428">
+        <v>6.713381</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>16.999701000000002</v>
+      </c>
+      <c r="B429">
+        <v>6.8109890000000002</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>17</v>
+      </c>
+      <c r="B430">
+        <v>6.8111660000000001</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>17</v>
+      </c>
+      <c r="B431">
+        <v>6.8111649999999999</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>17.000098999999999</v>
+      </c>
+      <c r="B432">
+        <v>6.8111129999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B433"/>
   <sheetViews>
-    <sheetView topLeftCell="A420" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B433"/>
+    <sheetView topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="B435" sqref="B435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4560,12 +8038,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C437"/>
   <sheetViews>
-    <sheetView topLeftCell="A401" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C437"/>
+    <sheetView topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="D419" sqref="D419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/WingDeformation.xlsx
+++ b/data/WingDeformation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Diplom_tex\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\BPLA\BPLA_2014\Dynnikov_diplom\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Kryuchkov" sheetId="1" r:id="rId1"/>
-    <sheet name="Rotating" sheetId="4" r:id="rId2"/>
-    <sheet name="Rear Lounge" sheetId="2" r:id="rId3"/>
-    <sheet name="Front Lounge" sheetId="3" r:id="rId4"/>
+    <sheet name="MomentsFromBPS" sheetId="5" r:id="rId2"/>
+    <sheet name="Rotating" sheetId="4" r:id="rId3"/>
+    <sheet name="Rear Lounge" sheetId="2" r:id="rId4"/>
+    <sheet name="Front Lounge" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="WingDeformationFront" localSheetId="3">'Front Lounge'!$A$1:$C$437</definedName>
-    <definedName name="WingDeformationRear" localSheetId="2">'Rear Lounge'!$A$1:$B$433</definedName>
+    <definedName name="WingDeformationFront" localSheetId="4">'Front Lounge'!$A$1:$C$437</definedName>
+    <definedName name="WingDeformationRear" localSheetId="3">'Rear Lounge'!$A$1:$B$433</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>bottom</t>
   </si>
@@ -110,6 +111,9 @@
   </si>
   <si>
     <t>delta(x) = (-9.31939+9.56525)*1e-006*x**5 + (0.000389254-0.00040337)*x**4 + (-0.00568668+0.00602961)*x**3 + (0.0581283-0.0620603)*x**2 + (-0.0799436+0.0968412)*x + (0.000112752-0.034874)</t>
+  </si>
+  <si>
+    <t>без подгона</t>
   </si>
 </sst>
 </file>
@@ -445,7 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21:I32"/>
     </sheetView>
   </sheetViews>
@@ -478,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.4500000000000002</v>
+        <v>2.65</v>
       </c>
       <c r="C4">
         <v>2.4500000000000002</v>
@@ -518,8 +522,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <f>B8/B7</f>
-        <v>0.13245514098547423</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -537,7 +540,7 @@
       </c>
       <c r="B11">
         <f>B10*B9</f>
-        <v>1.9007312731415551</v>
+        <v>2.4395000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -632,52 +635,52 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <f>B16+$B$9*(B15-$B$4)</f>
-        <v>2.6491028197094809E-2</v>
+        <f>B16+$B$9*(B15-$B$4) +0.104005/1.3</f>
+        <v>8.0003846153846148E-2</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:M17" si="0">C16+$B$9*(C15-$B$4)</f>
-        <v>0.1293438194246653</v>
+        <f>C16+$B$9*(C15-$B$4) +0.104005/1.3</f>
+        <v>0.20981384615384616</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0.35676694673882081</v>
+        <f>D16+$B$9*(D15-$B$4) +0.104005/1.3</f>
+        <v>0.49111384615384623</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0.62774007405297638</v>
+        <f>E16+$B$9*(E15-$B$4) +0.104005/1.3</f>
+        <v>0.81596384615384632</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0.94681320136713187</v>
+        <f>F16+$B$9*(F15-$B$4) +0.104005/1.3</f>
+        <v>1.1889138461538462</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>1.3188863286812875</v>
+        <f>G16+$B$9*(G15-$B$4) +0.104005/1.3</f>
+        <v>1.6148638461538463</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
-        <v>1.7489594559954429</v>
+        <f>H16+$B$9*(H15-$B$4) +0.104005/1.3</f>
+        <v>2.0988138461538464</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
-        <v>2.2399001281686131</v>
+        <f>I16+$B$9*(I15-$B$4) +0.104005/1.3</f>
+        <v>2.6435938461538462</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
-        <v>2.7821057106237541</v>
+        <f>J16+$B$9*(J15-$B$4) +0.104005/1.3</f>
+        <v>3.2397138461538466</v>
       </c>
       <c r="K17">
-        <f t="shared" si="0"/>
-        <v>3.372046382796924</v>
+        <f>K16+$B$9*(K15-$B$4) +0.104005/1.3</f>
+        <v>3.8834938461538462</v>
       </c>
       <c r="L17">
-        <f t="shared" si="0"/>
-        <v>3.9821195101110796</v>
+        <f>L16+$B$9*(L15-$B$4) +0.104005/1.3</f>
+        <v>4.547443846153846</v>
       </c>
       <c r="M17">
-        <f t="shared" si="0"/>
-        <v>4.2872223013386499</v>
+        <f>M16+$B$9*(M15-$B$4) +0.104005/1.3</f>
+        <v>4.8795038461538462</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -686,51 +689,51 @@
       </c>
       <c r="B18">
         <f>B17*1.3</f>
-        <v>3.4438336656223256E-2</v>
+        <v>0.104005</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:M18" si="1">C17*1.3</f>
-        <v>0.16814696525206491</v>
+        <f t="shared" ref="C18:M18" si="0">C17*1.3</f>
+        <v>0.272758</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
-        <v>0.46379703076046708</v>
+        <f t="shared" si="0"/>
+        <v>0.63844800000000013</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
-        <v>0.81606209626886927</v>
+        <f t="shared" si="0"/>
+        <v>1.0607530000000003</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
-        <v>1.2308571617772714</v>
+        <f t="shared" si="0"/>
+        <v>1.5455880000000002</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
-        <v>1.7145522272856739</v>
+        <f t="shared" si="0"/>
+        <v>2.0993230000000001</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
-        <v>2.2736472927940756</v>
+        <f t="shared" si="0"/>
+        <v>2.7284580000000003</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
-        <v>2.9118701666191971</v>
+        <f t="shared" si="0"/>
+        <v>3.4366720000000002</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
-        <v>3.6167374238108803</v>
+        <f t="shared" si="0"/>
+        <v>4.211628000000001</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
-        <v>4.3836602976360011</v>
+        <f t="shared" si="0"/>
+        <v>5.0485420000000003</v>
       </c>
       <c r="L18">
-        <f t="shared" si="1"/>
-        <v>5.1767553631444034</v>
+        <f t="shared" si="0"/>
+        <v>5.9116770000000001</v>
       </c>
       <c r="M18">
-        <f t="shared" si="1"/>
-        <v>5.573388991740245</v>
+        <f t="shared" si="0"/>
+        <v>6.3433550000000007</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -756,16 +759,18 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.6491028197094809E-2</v>
+        <v>8.0003846153846148E-2</v>
       </c>
       <c r="E21" s="1">
-        <v>3.4438336656223256E-2</v>
+        <v>0.104005</v>
       </c>
       <c r="H21">
+        <f>B21</f>
         <v>2.65</v>
       </c>
       <c r="I21">
-        <v>3.4438336656223256E-2</v>
+        <f>E21</f>
+        <v>0.104005</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -776,16 +781,18 @@
         <v>7.7500000000000008E-3</v>
       </c>
       <c r="D22">
-        <v>0.1293438194246653</v>
+        <v>0.20981384615384616</v>
       </c>
       <c r="E22" s="1">
-        <v>0.16814696525206491</v>
+        <v>0.272758</v>
       </c>
       <c r="H22">
+        <f t="shared" ref="H22:H32" si="1">B22</f>
         <v>3.3679999999999999</v>
       </c>
       <c r="I22">
-        <v>0.16814696525206491</v>
+        <f t="shared" ref="I22:I32" si="2">E22</f>
+        <v>0.272758</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -796,16 +803,18 @@
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="D23">
-        <v>0.35676694673882081</v>
+        <v>0.49111384615384623</v>
       </c>
       <c r="E23" s="1">
-        <v>0.46379703076046708</v>
+        <v>0.63844800000000013</v>
       </c>
       <c r="H23">
+        <f t="shared" si="1"/>
         <v>4.8029999999999999</v>
       </c>
       <c r="I23">
-        <v>0.46379703076046708</v>
+        <f t="shared" si="2"/>
+        <v>0.63844800000000013</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -816,16 +825,18 @@
         <v>0.126</v>
       </c>
       <c r="D24">
-        <v>0.62774007405297638</v>
+        <v>0.81596384615384632</v>
       </c>
       <c r="E24" s="1">
-        <v>0.81606209626886927</v>
+        <v>1.0607530000000003</v>
       </c>
       <c r="H24">
+        <f t="shared" si="1"/>
         <v>6.2380000000000004</v>
       </c>
       <c r="I24">
-        <v>0.81606209626886927</v>
+        <f t="shared" si="2"/>
+        <v>1.0607530000000003</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -836,16 +847,18 @@
         <v>0.255</v>
       </c>
       <c r="D25">
-        <v>0.94681320136713187</v>
+        <v>1.1889138461538462</v>
       </c>
       <c r="E25" s="1">
-        <v>1.2308571617772714</v>
+        <v>1.5455880000000002</v>
       </c>
       <c r="H25">
+        <f t="shared" si="1"/>
         <v>7.673</v>
       </c>
       <c r="I25">
-        <v>1.2308571617772714</v>
+        <f t="shared" si="2"/>
+        <v>1.5455880000000002</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -856,16 +869,18 @@
         <v>0.43700000000000006</v>
       </c>
       <c r="D26">
-        <v>1.3188863286812875</v>
+        <v>1.6148638461538463</v>
       </c>
       <c r="E26" s="1">
-        <v>1.7145522272856739</v>
+        <v>2.0993230000000001</v>
       </c>
       <c r="H26">
+        <f t="shared" si="1"/>
         <v>9.1080000000000005</v>
       </c>
       <c r="I26">
-        <v>1.7145522272856739</v>
+        <f t="shared" si="2"/>
+        <v>2.0993230000000001</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -876,16 +891,18 @@
         <v>0.67700000000000005</v>
       </c>
       <c r="D27">
-        <v>1.7489594559954429</v>
+        <v>2.0988138461538464</v>
       </c>
       <c r="E27" s="1">
-        <v>2.2736472927940756</v>
+        <v>2.7284580000000003</v>
       </c>
       <c r="H27">
+        <f t="shared" si="1"/>
         <v>10.542999999999999</v>
       </c>
       <c r="I27">
-        <v>2.2736472927940756</v>
+        <f t="shared" si="2"/>
+        <v>2.7284580000000003</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -896,16 +913,18 @@
         <v>0.97799999999999998</v>
       </c>
       <c r="D28">
-        <v>2.2399001281686131</v>
+        <v>2.6435938461538462</v>
       </c>
       <c r="E28" s="1">
-        <v>2.9118701666191971</v>
+        <v>3.4366720000000002</v>
       </c>
       <c r="H28">
+        <f t="shared" si="1"/>
         <v>11.977</v>
       </c>
       <c r="I28">
-        <v>2.9118701666191971</v>
+        <f t="shared" si="2"/>
+        <v>3.4366720000000002</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -916,16 +935,18 @@
         <v>1.33</v>
       </c>
       <c r="D29">
-        <v>2.7821057106237541</v>
+        <v>3.2397138461538466</v>
       </c>
       <c r="E29" s="1">
-        <v>3.6167374238108803</v>
+        <v>4.211628000000001</v>
       </c>
       <c r="H29">
+        <f t="shared" si="1"/>
         <v>13.413</v>
       </c>
       <c r="I29">
-        <v>3.6167374238108803</v>
+        <f t="shared" si="2"/>
+        <v>4.211628000000001</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -936,16 +957,18 @@
         <v>1.73</v>
       </c>
       <c r="D30">
-        <v>3.372046382796924</v>
+        <v>3.8834938461538462</v>
       </c>
       <c r="E30" s="1">
-        <v>4.3836602976360011</v>
+        <v>5.0485420000000003</v>
       </c>
       <c r="H30">
+        <f t="shared" si="1"/>
         <v>14.847</v>
       </c>
       <c r="I30">
-        <v>4.3836602976360011</v>
+        <f t="shared" si="2"/>
+        <v>5.0485420000000003</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -956,16 +979,18 @@
         <v>2.15</v>
       </c>
       <c r="D31">
-        <v>3.9821195101110796</v>
+        <v>4.547443846153846</v>
       </c>
       <c r="E31" s="1">
-        <v>5.1767553631444034</v>
+        <v>5.9116770000000001</v>
       </c>
       <c r="H31">
+        <f t="shared" si="1"/>
         <v>16.282</v>
       </c>
       <c r="I31">
-        <v>5.1767553631444034</v>
+        <f t="shared" si="2"/>
+        <v>5.9116770000000001</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -976,16 +1001,18 @@
         <v>2.36</v>
       </c>
       <c r="D32">
-        <v>4.2872223013386499</v>
+        <v>4.8795038461538462</v>
       </c>
       <c r="E32" s="1">
-        <v>5.573388991740245</v>
+        <v>6.3433550000000007</v>
       </c>
       <c r="H32">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I32">
-        <v>5.573388991740245</v>
+        <f t="shared" si="2"/>
+        <v>6.3433550000000007</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
@@ -1079,9 +1106,676 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>17-(17-B2)*(17-2.65)/(17-2.45)</f>
+        <v>2.6499999999999986</v>
+      </c>
+      <c r="B2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C2">
+        <f>E2/9.8 / 1000 * $I$4 * 1.02</f>
+        <v>88.594766668571424</v>
+      </c>
+      <c r="D2">
+        <f>E2/9.8 / 1000</f>
+        <v>74.847142857142856</v>
+      </c>
+      <c r="E2">
+        <f>-F2</f>
+        <v>733502</v>
+      </c>
+      <c r="F2">
+        <v>-733502</v>
+      </c>
+      <c r="L2">
+        <f>A2</f>
+        <v>2.6499999999999986</v>
+      </c>
+      <c r="M2">
+        <f>C2</f>
+        <v>88.594766668571424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A21" si="0">17-(17-B3)*(17-2.65)/(17-2.45)</f>
+        <v>3.4094158075601388</v>
+      </c>
+      <c r="B3">
+        <v>3.22</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C21" si="1">E3/9.8 / 1000 * $I$4 * 1.02</f>
+        <v>79.282860046530601</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D21" si="2">E3/9.8 / 1000</f>
+        <v>66.98020408163265</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E21" si="3">-F3</f>
+        <v>656406</v>
+      </c>
+      <c r="F3">
+        <v>-656406</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L21" si="4">A3</f>
+        <v>3.4094158075601388</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M21" si="5">C3</f>
+        <v>79.282860046530601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>4.1589690721649504</v>
+      </c>
+      <c r="B4">
+        <v>3.98</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>69.409794373877546</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>58.63918367346939</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="3"/>
+        <v>574664</v>
+      </c>
+      <c r="F4">
+        <v>-574664</v>
+      </c>
+      <c r="I4">
+        <f>87.035/75</f>
+        <v>1.1604666666666665</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="4"/>
+        <v>4.1589690721649504</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="5"/>
+        <v>69.409794373877546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4.9183848797250871</v>
+      </c>
+      <c r="B5">
+        <v>4.75</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>60.595514804897952</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>51.19265306122449</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>501688</v>
+      </c>
+      <c r="F5">
+        <v>-501688</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>4.9183848797250871</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>60.595514804897952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5.6679381443298986</v>
+      </c>
+      <c r="B6">
+        <v>5.51</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>51.964584232653053</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>43.901020408163262</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>430230</v>
+      </c>
+      <c r="F6">
+        <v>-430230</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>5.6679381443298986</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>51.964584232653053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6.4273539518900353</v>
+      </c>
+      <c r="B7">
+        <v>6.28</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>44.577842076326519</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>37.660510204081625</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>369073</v>
+      </c>
+      <c r="F7">
+        <v>-369073</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>6.4273539518900353</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>44.577842076326519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7.1769072164948451</v>
+      </c>
+      <c r="B8">
+        <v>7.04</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>37.554415982040808</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>31.726938775510202</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>310924</v>
+      </c>
+      <c r="F8">
+        <v>-310924</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>7.1769072164948451</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>37.554415982040808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7.9363230240549818</v>
+      </c>
+      <c r="B9">
+        <v>7.81</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>31.259554544081627</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>26.408877551020407</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>258807</v>
+      </c>
+      <c r="F9">
+        <v>-258807</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>7.9363230240549818</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>31.259554544081627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8.6957388316151203</v>
+      </c>
+      <c r="B10">
+        <v>8.58</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>25.420891499183671</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>21.476224489795918</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>210467</v>
+      </c>
+      <c r="F10">
+        <v>-210467</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>8.6957388316151203</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>25.420891499183671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9.4452920962199318</v>
+      </c>
+      <c r="B11">
+        <v>9.34</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>20.332896448163257</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>17.177755102040813</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>168342</v>
+      </c>
+      <c r="F11">
+        <v>-168342</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>9.4452920962199318</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>20.332896448163257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10.204707903780069</v>
+      </c>
+      <c r="B12">
+        <v>10.11</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>15.741320617551017</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>13.298673469387753</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>130327</v>
+      </c>
+      <c r="F12">
+        <v>-130327</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>10.204707903780069</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>15.741320617551017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10.95426116838488</v>
+      </c>
+      <c r="B13">
+        <v>10.87</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>11.808013582857141</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>9.9757142857142842</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>97762</v>
+      </c>
+      <c r="F13">
+        <v>-97762</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>10.95426116838488</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>11.808013582857141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11.713676975945017</v>
+      </c>
+      <c r="B14">
+        <v>11.64</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>8.3168940824489788</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>7.0263265306122449</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>68858</v>
+      </c>
+      <c r="F14">
+        <v>-68858</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>11.713676975945017</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>8.3168940824489788</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12.473092783505155</v>
+      </c>
+      <c r="B15">
+        <v>12.41</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>5.6416655391836725</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>4.7662244897959178</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>46709</v>
+      </c>
+      <c r="F15">
+        <v>-46709</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>12.473092783505155</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>5.6416655391836725</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13.222646048109965</v>
+      </c>
+      <c r="B16">
+        <v>13.17</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>3.7109450432653053</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>3.1351020408163262</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>30724</v>
+      </c>
+      <c r="F16">
+        <v>-30724</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>13.222646048109965</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>3.7109450432653053</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>13.982061855670104</v>
+      </c>
+      <c r="B17">
+        <v>13.94</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>2.027226324897959</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>1.7126530612244897</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>16784</v>
+      </c>
+      <c r="F17">
+        <v>-16784</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>13.982061855670104</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>2.027226324897959</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>14.731615120274913</v>
+      </c>
+      <c r="B18">
+        <v>14.7</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>1.1281156979591835</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>0.95306122448979591</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>9340</v>
+      </c>
+      <c r="F18">
+        <v>-9340</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>14.731615120274913</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>1.1281156979591835</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>15.491030927835052</v>
+      </c>
+      <c r="B19">
+        <v>15.47</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0.46875985265306114</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>0.39602040816326528</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>3881</v>
+      </c>
+      <c r="F19">
+        <v>-3881</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>15.491030927835052</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>0.46875985265306114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>16.240584192439862</v>
+      </c>
+      <c r="B20">
+        <v>16.23</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.10314890857142854</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>8.7142857142857133E-2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>854</v>
+      </c>
+      <c r="F20">
+        <v>-854</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>16.240584192439862</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>0.10314890857142854</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E432"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -4551,11 +5245,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B433"/>
   <sheetViews>
-    <sheetView topLeftCell="A400" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B435" sqref="B435"/>
     </sheetView>
   </sheetViews>
@@ -8038,11 +8732,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C437"/>
   <sheetViews>
-    <sheetView topLeftCell="A404" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D419" sqref="D419"/>
     </sheetView>
   </sheetViews>
